--- a/Einkaufspreise_new.xlsx
+++ b/Einkaufspreise_new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/timehmann/Documents/Programmieren/VSCode/Python/SmallProjects/Info_Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD477DFC-5437-9647-8811-FE762652AAD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B51BC38-3C06-2445-9571-46BE7D9BF531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
